--- a/biology/Botanique/Eucalyptus_microcorys/Eucalyptus_microcorys.xlsx
+++ b/biology/Botanique/Eucalyptus_microcorys/Eucalyptus_microcorys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Eucalyptus microcorys ou Tallowood[2] (de l'anglais tallowwood ) est une espèce d'eucalyptus originaire de Nouvelle-Galles du Sud et du Queensland en Australie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eucalyptus microcorys ou Tallowood (de l'anglais tallowwood ) est une espèce d'eucalyptus originaire de Nouvelle-Galles du Sud et du Queensland en Australie.
 Il pousse dans les forêts près de la côte sur les sols fertiles ou à fertilité modérée dans les endroits abrités du vent et ensoleillés. Il craint la sécheresse et le gel.
 C'est un grand arbre à feuilles persistantes d'environ 40 mètres de haut, parfois 70 m, avec une écorce rugueuse, fibreuse, orange brun et une couronne dense. Les feuilles lancéolées font de 8 à 12 cm de long et 1,5 à 2,5 cm de large. Les fleurs blanches sont groupées en ombelles de 7 à 11 fleurs.
 Son bois coupé laisse une sensation de gras.
